--- a/SampleData/OBO_Excel_Format.xlsx
+++ b/SampleData/OBO_Excel_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="6" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Unit_of_Measure</t>
   </si>
   <si>
-    <t>MAL</t>
-  </si>
-  <si>
     <t>FRGHTWORKS</t>
   </si>
   <si>
@@ -888,6 +885,9 @@
   </si>
   <si>
     <t>Rinchem Carrier Info Lookup</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -990,111 +990,20 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1104,130 +1013,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1495,6 +1280,221 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1515,81 +1515,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A1:V101" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A1:V101" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:V101"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="Order_Date" dataDxfId="21"/>
-    <tableColumn id="2" name="Rinchem_Supplier_Id" dataDxfId="20"/>
-    <tableColumn id="3" name="Purchase_Order_Number" dataDxfId="19"/>
-    <tableColumn id="4" name="Ship_To_Customer_Code" dataDxfId="18"/>
-    <tableColumn id="5" name="Ship_To_Name" dataDxfId="17">
+    <tableColumn id="1" name="Order_Date" dataDxfId="43"/>
+    <tableColumn id="2" name="Rinchem_Supplier_Id" dataDxfId="42"/>
+    <tableColumn id="3" name="Purchase_Order_Number" dataDxfId="41"/>
+    <tableColumn id="4" name="Ship_To_Customer_Code" dataDxfId="40"/>
+    <tableColumn id="5" name="Ship_To_Name" dataDxfId="39">
       <calculatedColumnFormula>VLOOKUP(D2,Customer!A$1:C$100,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Freight_Payment_Terms_Type" dataDxfId="16"/>
-    <tableColumn id="7" name="Bill_To_Customer_Code" dataDxfId="15"/>
-    <tableColumn id="8" name="Bill_To_Name" dataDxfId="14">
+    <tableColumn id="6" name="Freight_Payment_Terms_Type" dataDxfId="38"/>
+    <tableColumn id="7" name="Bill_To_Customer_Code" dataDxfId="37"/>
+    <tableColumn id="8" name="Bill_To_Name" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(D2,Customer!A$1:C$100,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Desired_Delivery_Date" dataDxfId="13"/>
-    <tableColumn id="10" name="Carrier_Service" dataDxfId="12"/>
-    <tableColumn id="23" name="Carrier_Name" dataDxfId="11">
+    <tableColumn id="9" name="Desired_Delivery_Date" dataDxfId="36"/>
+    <tableColumn id="10" name="Carrier_Service" dataDxfId="35"/>
+    <tableColumn id="23" name="Carrier_Name" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(J2,CarrierInfo!B$1:C$314,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="From_Warehouse_Code" dataDxfId="10"/>
-    <tableColumn id="13" name="Order_Type" dataDxfId="9"/>
-    <tableColumn id="14" name="Product_Owner_Id" dataDxfId="8"/>
-    <tableColumn id="15" name="Line_Item_#" dataDxfId="7"/>
-    <tableColumn id="16" name="Outbound_Order" dataDxfId="6"/>
-    <tableColumn id="17" name="Hold_Code" dataDxfId="5"/>
-    <tableColumn id="18" name="Inventory_Detail" dataDxfId="4"/>
-    <tableColumn id="19" name="Lot_Number" dataDxfId="3"/>
-    <tableColumn id="20" name="Rinchem_Part_Number" dataDxfId="2"/>
-    <tableColumn id="21" name="Quantity" dataDxfId="1"/>
-    <tableColumn id="22" name="Unit_of_Measure" dataDxfId="0"/>
+    <tableColumn id="11" name="From_Warehouse_Code" dataDxfId="33"/>
+    <tableColumn id="13" name="Order_Type" dataDxfId="32"/>
+    <tableColumn id="14" name="Product_Owner_Id" dataDxfId="31"/>
+    <tableColumn id="15" name="Line_Item_#" dataDxfId="30"/>
+    <tableColumn id="16" name="Outbound_Order" dataDxfId="29"/>
+    <tableColumn id="17" name="Hold_Code" dataDxfId="28"/>
+    <tableColumn id="18" name="Inventory_Detail" dataDxfId="27"/>
+    <tableColumn id="19" name="Lot_Number" dataDxfId="26"/>
+    <tableColumn id="20" name="Rinchem_Part_Number" dataDxfId="25"/>
+    <tableColumn id="21" name="Quantity" dataDxfId="24"/>
+    <tableColumn id="22" name="Unit_of_Measure" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table21" displayName="Table21" ref="A2:G12" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table21" displayName="Table21" ref="A2:G12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A2:G12"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Customer_Code" dataDxfId="43"/>
-    <tableColumn id="2" name="Customer_Name" dataDxfId="42"/>
-    <tableColumn id="3" name="Origin_ID" dataDxfId="41"/>
-    <tableColumn id="4" name="Origin_Address" dataDxfId="40"/>
-    <tableColumn id="5" name="Origin_City" dataDxfId="39"/>
-    <tableColumn id="6" name="Origin_State" dataDxfId="38"/>
-    <tableColumn id="7" name="Origin_Cntry" dataDxfId="37"/>
+    <tableColumn id="1" name="Customer_Code" dataDxfId="20"/>
+    <tableColumn id="2" name="Customer_Name" dataDxfId="19"/>
+    <tableColumn id="3" name="Origin_ID" dataDxfId="18"/>
+    <tableColumn id="4" name="Origin_Address" dataDxfId="17"/>
+    <tableColumn id="5" name="Origin_City" dataDxfId="16"/>
+    <tableColumn id="6" name="Origin_State" dataDxfId="15"/>
+    <tableColumn id="7" name="Origin_Cntry" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table22" displayName="Table22" ref="A2:G10" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table22" displayName="Table22" ref="A2:G10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A2:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Dest_WHSE_Cd" dataDxfId="34"/>
-    <tableColumn id="2" name="Dest_Nm" dataDxfId="33"/>
-    <tableColumn id="3" name="Dest_Address" dataDxfId="32"/>
-    <tableColumn id="4" name="Dest_City" dataDxfId="31"/>
-    <tableColumn id="5" name="Dest_State" dataDxfId="30"/>
-    <tableColumn id="6" name="Dest_Zip" dataDxfId="29"/>
-    <tableColumn id="7" name="Dest_Country" dataDxfId="28"/>
+    <tableColumn id="1" name="Dest_WHSE_Cd" dataDxfId="11"/>
+    <tableColumn id="2" name="Dest_Nm" dataDxfId="10"/>
+    <tableColumn id="3" name="Dest_Address" dataDxfId="9"/>
+    <tableColumn id="4" name="Dest_City" dataDxfId="8"/>
+    <tableColumn id="5" name="Dest_State" dataDxfId="7"/>
+    <tableColumn id="6" name="Dest_Zip" dataDxfId="6"/>
+    <tableColumn id="7" name="Dest_Country" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table23" displayName="Table23" ref="A2:C314" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table23" displayName="Table23" ref="A2:C314" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:C314"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Warehouse" dataDxfId="26"/>
-    <tableColumn id="2" name="Carrier Service" dataDxfId="25"/>
-    <tableColumn id="3" name="Carrier Service Name" dataDxfId="24"/>
+    <tableColumn id="1" name="Warehouse" dataDxfId="3"/>
+    <tableColumn id="2" name="Carrier Service" dataDxfId="2"/>
+    <tableColumn id="3" name="Carrier Service Name" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,10 +1870,11 @@
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -1898,7 +1899,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>11</v>
@@ -1919,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>5</v>
@@ -1931,13 +1932,13 @@
         <v>8</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>12</v>
@@ -1960,13 +1961,13 @@
         <v>42850</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="C2" s="6">
-        <v>154552</v>
+        <v>123456</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>VLOOKUP(D2,Customer!A$1:C$100,2,FALSE)</f>
@@ -1974,7 +1975,7 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H2" s="6" t="str">
         <f>VLOOKUP(D2,Customer!A$1:C$100,2,FALSE)</f>
@@ -1984,20 +1985,20 @@
         <v>42853</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="K2" s="6" t="str">
         <f>VLOOKUP(J2,CarrierInfo!B$1:C$314,2,FALSE)</f>
-        <v>FREIGHTWORKS       </v>
+        <v>Rinchem</v>
       </c>
       <c r="L2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2011,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -5220,19 +5221,19 @@
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
-      <c r="E100" s="13" t="e">
+      <c r="E100" s="11" t="e">
         <f>VLOOKUP(D100,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
-      <c r="H100" s="13" t="e">
+      <c r="H100" s="11" t="e">
         <f>VLOOKUP(D100,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="13" t="e">
+      <c r="K100" s="11" t="e">
         <f>VLOOKUP(J100,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5294,8 +5295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,60 +5311,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5397,37 +5398,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5435,22 +5436,22 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F3" s="1">
         <v>85226</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5458,22 +5459,22 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F4" s="1">
         <v>97124</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5481,22 +5482,22 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F5" s="1">
         <v>87107</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5514,7 +5515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C314"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5526,3450 +5527,3450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="A1" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="C87" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B224" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B225" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B226" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B230" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B234" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B235" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B240" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B245" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B246" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B248" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B252" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B253" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B255" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B257" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/SampleData/OBO_Excel_Format.xlsx
+++ b/SampleData/OBO_Excel_Format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdenning\Documents\Visual Studio 2015\Projects\rinchem-api-integration\SampleData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="CarrierInfo" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="291">
   <si>
     <t>Bill_To_Customer_Code</t>
   </si>
@@ -888,12 +889,27 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>xxxx_part</t>
+  </si>
+  <si>
+    <t>Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -966,15 +982,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -993,6 +1006,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,16 +1024,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="46">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1391,6 +1401,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1455,6 +1476,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1515,8 +1537,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A1:V101" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:V101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A1:V100" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
+  <autoFilter ref="A1:V100"/>
   <tableColumns count="22">
     <tableColumn id="1" name="Order_Date" dataDxfId="43"/>
     <tableColumn id="2" name="Rinchem_Supplier_Id" dataDxfId="42"/>
@@ -1527,69 +1549,69 @@
     </tableColumn>
     <tableColumn id="6" name="Freight_Payment_Terms_Type" dataDxfId="38"/>
     <tableColumn id="7" name="Bill_To_Customer_Code" dataDxfId="37"/>
-    <tableColumn id="8" name="Bill_To_Name" dataDxfId="0">
+    <tableColumn id="8" name="Bill_To_Name" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(D2,Customer!A$1:C$100,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Desired_Delivery_Date" dataDxfId="36"/>
-    <tableColumn id="10" name="Carrier_Service" dataDxfId="35"/>
-    <tableColumn id="23" name="Carrier_Name" dataDxfId="34">
+    <tableColumn id="9" name="Desired_Delivery_Date" dataDxfId="35"/>
+    <tableColumn id="10" name="Carrier_Service" dataDxfId="34"/>
+    <tableColumn id="23" name="Carrier_Name" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(J2,CarrierInfo!B$1:C$314,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="From_Warehouse_Code" dataDxfId="33"/>
-    <tableColumn id="13" name="Order_Type" dataDxfId="32"/>
-    <tableColumn id="14" name="Product_Owner_Id" dataDxfId="31"/>
-    <tableColumn id="15" name="Line_Item_#" dataDxfId="30"/>
-    <tableColumn id="16" name="Outbound_Order" dataDxfId="29"/>
-    <tableColumn id="17" name="Hold_Code" dataDxfId="28"/>
-    <tableColumn id="18" name="Inventory_Detail" dataDxfId="27"/>
-    <tableColumn id="19" name="Lot_Number" dataDxfId="26"/>
-    <tableColumn id="20" name="Rinchem_Part_Number" dataDxfId="25"/>
-    <tableColumn id="21" name="Quantity" dataDxfId="24"/>
-    <tableColumn id="22" name="Unit_of_Measure" dataDxfId="23"/>
+    <tableColumn id="11" name="From_Warehouse_Code" dataDxfId="32"/>
+    <tableColumn id="13" name="Order_Type" dataDxfId="31"/>
+    <tableColumn id="14" name="Product_Owner_Id" dataDxfId="30"/>
+    <tableColumn id="15" name="Line_Item_#" dataDxfId="29"/>
+    <tableColumn id="16" name="Outbound_Order" dataDxfId="28"/>
+    <tableColumn id="17" name="Hold_Code" dataDxfId="27"/>
+    <tableColumn id="18" name="Inventory_Detail" dataDxfId="26"/>
+    <tableColumn id="19" name="Lot_Number" dataDxfId="25"/>
+    <tableColumn id="20" name="Rinchem_Part_Number" dataDxfId="24"/>
+    <tableColumn id="21" name="Quantity" dataDxfId="23"/>
+    <tableColumn id="22" name="Unit_of_Measure" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table21" displayName="Table21" ref="A2:G12" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table21" displayName="Table21" ref="A2:G12" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:G12"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Customer_Code" dataDxfId="20"/>
-    <tableColumn id="2" name="Customer_Name" dataDxfId="19"/>
-    <tableColumn id="3" name="Origin_ID" dataDxfId="18"/>
-    <tableColumn id="4" name="Origin_Address" dataDxfId="17"/>
-    <tableColumn id="5" name="Origin_City" dataDxfId="16"/>
-    <tableColumn id="6" name="Origin_State" dataDxfId="15"/>
-    <tableColumn id="7" name="Origin_Cntry" dataDxfId="14"/>
+    <tableColumn id="1" name="Customer_Code" dataDxfId="19"/>
+    <tableColumn id="2" name="Customer_Name" dataDxfId="18"/>
+    <tableColumn id="3" name="Origin_ID" dataDxfId="17"/>
+    <tableColumn id="4" name="Origin_Address" dataDxfId="16"/>
+    <tableColumn id="5" name="Origin_City" dataDxfId="15"/>
+    <tableColumn id="6" name="Origin_State" dataDxfId="14"/>
+    <tableColumn id="7" name="Origin_Cntry" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table22" displayName="Table22" ref="A2:G10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table22" displayName="Table22" ref="A2:G10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:G10"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Dest_WHSE_Cd" dataDxfId="11"/>
-    <tableColumn id="2" name="Dest_Nm" dataDxfId="10"/>
-    <tableColumn id="3" name="Dest_Address" dataDxfId="9"/>
-    <tableColumn id="4" name="Dest_City" dataDxfId="8"/>
-    <tableColumn id="5" name="Dest_State" dataDxfId="7"/>
-    <tableColumn id="6" name="Dest_Zip" dataDxfId="6"/>
-    <tableColumn id="7" name="Dest_Country" dataDxfId="5"/>
+    <tableColumn id="1" name="Dest_WHSE_Cd" dataDxfId="10"/>
+    <tableColumn id="2" name="Dest_Nm" dataDxfId="9"/>
+    <tableColumn id="3" name="Dest_Address" dataDxfId="8"/>
+    <tableColumn id="4" name="Dest_City" dataDxfId="7"/>
+    <tableColumn id="5" name="Dest_State" dataDxfId="6"/>
+    <tableColumn id="6" name="Dest_Zip" dataDxfId="5"/>
+    <tableColumn id="7" name="Dest_Country" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table23" displayName="Table23" ref="A2:C314" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table23" displayName="Table23" ref="A2:C314" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:C314"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Warehouse" dataDxfId="3"/>
-    <tableColumn id="2" name="Carrier Service" dataDxfId="2"/>
-    <tableColumn id="3" name="Carrier Service Name" dataDxfId="1"/>
+    <tableColumn id="1" name="Warehouse" dataDxfId="2"/>
+    <tableColumn id="2" name="Carrier Service" dataDxfId="1"/>
+    <tableColumn id="3" name="Carrier Service Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1858,23 +1880,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13" style="13" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -1888,126 +1910,136 @@
     <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="48" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>42850</v>
+      <c r="A2" s="11">
+        <v>42851</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>123456</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="E2" s="6" t="str">
+      <c r="E2" s="5" t="str">
         <f>VLOOKUP(D2,Customer!A$1:C$100,2,FALSE)</f>
         <v>EXAMPLE SUPPLIER, INC</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="H2" s="6" t="str">
+      <c r="H2" s="5" t="str">
         <f>VLOOKUP(D2,Customer!A$1:C$100,2,FALSE)</f>
         <v>EXAMPLE SUPPLIER, INC</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="11">
         <v>42853</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="6" t="str">
+      <c r="K2" s="5" t="str">
         <f>VLOOKUP(J2,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>Rinchem</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>290</v>
+      </c>
       <c r="S2" s="1">
         <v>170084</v>
       </c>
-      <c r="T2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="U2" s="1">
         <v>4</v>
       </c>
@@ -2016,29 +2048,29 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="e">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="e">
         <f>VLOOKUP(D3,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="e">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="e">
         <f>VLOOKUP(D3,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="e">
+      <c r="I3" s="11"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="e">
         <f>VLOOKUP(J3,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -2049,29 +2081,29 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="e">
+      <c r="A4" s="11"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="e">
         <f>VLOOKUP(D4,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6" t="e">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="e">
         <f>VLOOKUP(D4,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="e">
+      <c r="I4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="e">
         <f>VLOOKUP(J4,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -2082,29 +2114,29 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="e">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="e">
         <f>VLOOKUP(D5,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6" t="e">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="e">
         <f>VLOOKUP(D5,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="e">
+      <c r="I5" s="11"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5" t="e">
         <f>VLOOKUP(J5,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -2115,29 +2147,29 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="e">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="e">
         <f>VLOOKUP(D6,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="e">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="e">
         <f>VLOOKUP(D6,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="e">
+      <c r="I6" s="11"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="e">
         <f>VLOOKUP(J6,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -2148,29 +2180,29 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="e">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="e">
         <f>VLOOKUP(D7,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="e">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="e">
         <f>VLOOKUP(D7,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="e">
+      <c r="I7" s="11"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="e">
         <f>VLOOKUP(J7,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2181,29 +2213,29 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="e">
+      <c r="A8" s="11"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="e">
         <f>VLOOKUP(D8,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="e">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5" t="e">
         <f>VLOOKUP(D8,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="e">
+      <c r="I8" s="11"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="e">
         <f>VLOOKUP(J8,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2214,29 +2246,29 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6" t="e">
+      <c r="A9" s="11"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="e">
         <f>VLOOKUP(D9,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="e">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="e">
         <f>VLOOKUP(D9,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="e">
+      <c r="I9" s="11"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="e">
         <f>VLOOKUP(J9,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2247,29 +2279,29 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="e">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="e">
         <f>VLOOKUP(D10,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="e">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5" t="e">
         <f>VLOOKUP(D10,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="e">
+      <c r="I10" s="11"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="e">
         <f>VLOOKUP(J10,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2280,29 +2312,29 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="e">
+      <c r="A11" s="11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="e">
         <f>VLOOKUP(D11,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="e">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5" t="e">
         <f>VLOOKUP(D11,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="e">
+      <c r="I11" s="11"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="e">
         <f>VLOOKUP(J11,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2313,29 +2345,29 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="e">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="e">
         <f>VLOOKUP(D12,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="e">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5" t="e">
         <f>VLOOKUP(D12,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="e">
+      <c r="I12" s="11"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5" t="e">
         <f>VLOOKUP(J12,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2346,29 +2378,29 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="e">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="e">
         <f>VLOOKUP(D13,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6" t="e">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="e">
         <f>VLOOKUP(D13,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="e">
+      <c r="I13" s="11"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="e">
         <f>VLOOKUP(J13,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -2379,29 +2411,29 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="e">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="e">
         <f>VLOOKUP(D14,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="e">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="e">
         <f>VLOOKUP(D14,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="e">
+      <c r="I14" s="11"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="e">
         <f>VLOOKUP(J14,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -2412,29 +2444,29 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="e">
+      <c r="A15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="e">
         <f>VLOOKUP(D15,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="e">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5" t="e">
         <f>VLOOKUP(D15,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="e">
+      <c r="I15" s="11"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="e">
         <f>VLOOKUP(J15,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -2445,29 +2477,29 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="e">
+      <c r="A16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="e">
         <f>VLOOKUP(D16,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="e">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5" t="e">
         <f>VLOOKUP(D16,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="e">
+      <c r="I16" s="11"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="e">
         <f>VLOOKUP(J16,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -2478,29 +2510,29 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="e">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="e">
         <f>VLOOKUP(D17,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6" t="e">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5" t="e">
         <f>VLOOKUP(D17,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="e">
+      <c r="I17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="e">
         <f>VLOOKUP(J17,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -2511,29 +2543,29 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="e">
+      <c r="A18" s="11"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="e">
         <f>VLOOKUP(D18,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="e">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="e">
         <f>VLOOKUP(D18,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6" t="e">
+      <c r="I18" s="11"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="e">
         <f>VLOOKUP(J18,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2544,29 +2576,29 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="e">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="e">
         <f>VLOOKUP(D19,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="e">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="e">
         <f>VLOOKUP(D19,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6" t="e">
+      <c r="I19" s="11"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5" t="e">
         <f>VLOOKUP(J19,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -2577,29 +2609,29 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="e">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="e">
         <f>VLOOKUP(D20,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6" t="e">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="e">
         <f>VLOOKUP(D20,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="e">
+      <c r="I20" s="11"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="e">
         <f>VLOOKUP(J20,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2610,29 +2642,29 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="e">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="e">
         <f>VLOOKUP(D21,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="e">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="e">
         <f>VLOOKUP(D21,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="e">
+      <c r="I21" s="11"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="e">
         <f>VLOOKUP(J21,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2643,29 +2675,29 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="e">
+      <c r="A22" s="11"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="e">
         <f>VLOOKUP(D22,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="e">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="e">
         <f>VLOOKUP(D22,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="e">
+      <c r="I22" s="11"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="e">
         <f>VLOOKUP(J22,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -2676,29 +2708,29 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6" t="e">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="e">
         <f>VLOOKUP(D23,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="e">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="e">
         <f>VLOOKUP(D23,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="e">
+      <c r="I23" s="11"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="e">
         <f>VLOOKUP(J23,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -2709,29 +2741,29 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="e">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="e">
         <f>VLOOKUP(D24,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="e">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="e">
         <f>VLOOKUP(D24,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="e">
+      <c r="I24" s="11"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="e">
         <f>VLOOKUP(J24,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -2742,29 +2774,29 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="e">
+      <c r="A25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="e">
         <f>VLOOKUP(D25,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="e">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="e">
         <f>VLOOKUP(D25,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="e">
+      <c r="I25" s="11"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="e">
         <f>VLOOKUP(J25,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -2775,29 +2807,29 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="e">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="e">
         <f>VLOOKUP(D26,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="e">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5" t="e">
         <f>VLOOKUP(D26,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="e">
+      <c r="I26" s="11"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="e">
         <f>VLOOKUP(J26,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -2808,29 +2840,29 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="e">
+      <c r="A27" s="11"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="e">
         <f>VLOOKUP(D27,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="e">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5" t="e">
         <f>VLOOKUP(D27,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="e">
+      <c r="I27" s="11"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="e">
         <f>VLOOKUP(J27,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2841,29 +2873,29 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="e">
+      <c r="A28" s="11"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="e">
         <f>VLOOKUP(D28,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6" t="e">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5" t="e">
         <f>VLOOKUP(D28,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="e">
+      <c r="I28" s="11"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="e">
         <f>VLOOKUP(J28,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -2874,29 +2906,29 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="e">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="e">
         <f>VLOOKUP(D29,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="e">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="e">
         <f>VLOOKUP(D29,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6" t="e">
+      <c r="I29" s="11"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="e">
         <f>VLOOKUP(J29,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
@@ -2907,29 +2939,29 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6" t="e">
+      <c r="A30" s="11"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="e">
         <f>VLOOKUP(D30,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="e">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5" t="e">
         <f>VLOOKUP(D30,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6" t="e">
+      <c r="I30" s="11"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="e">
         <f>VLOOKUP(J30,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -2940,29 +2972,29 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="e">
+      <c r="A31" s="11"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="e">
         <f>VLOOKUP(D31,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="e">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5" t="e">
         <f>VLOOKUP(D31,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6" t="e">
+      <c r="I31" s="11"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="e">
         <f>VLOOKUP(J31,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -2973,29 +3005,29 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6" t="e">
+      <c r="A32" s="11"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="e">
         <f>VLOOKUP(D32,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="e">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5" t="e">
         <f>VLOOKUP(D32,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6" t="e">
+      <c r="I32" s="11"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="e">
         <f>VLOOKUP(J32,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3006,29 +3038,29 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="e">
+      <c r="A33" s="11"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="e">
         <f>VLOOKUP(D33,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6" t="e">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5" t="e">
         <f>VLOOKUP(D33,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6" t="e">
+      <c r="I33" s="11"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="e">
         <f>VLOOKUP(J33,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3039,29 +3071,29 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6" t="e">
+      <c r="A34" s="11"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="e">
         <f>VLOOKUP(D34,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="e">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="e">
         <f>VLOOKUP(D34,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6" t="e">
+      <c r="I34" s="11"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="e">
         <f>VLOOKUP(J34,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3072,29 +3104,29 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="e">
+      <c r="A35" s="11"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="e">
         <f>VLOOKUP(D35,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6" t="e">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5" t="e">
         <f>VLOOKUP(D35,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6" t="e">
+      <c r="I35" s="11"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="e">
         <f>VLOOKUP(J35,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3105,29 +3137,29 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="e">
+      <c r="A36" s="11"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="e">
         <f>VLOOKUP(D36,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6" t="e">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="e">
         <f>VLOOKUP(D36,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6" t="e">
+      <c r="I36" s="11"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="e">
         <f>VLOOKUP(J36,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -3138,29 +3170,29 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="e">
+      <c r="A37" s="11"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="e">
         <f>VLOOKUP(D37,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6" t="e">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="e">
         <f>VLOOKUP(D37,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="e">
+      <c r="I37" s="11"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="e">
         <f>VLOOKUP(J37,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3171,29 +3203,29 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="e">
+      <c r="A38" s="11"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="e">
         <f>VLOOKUP(D38,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6" t="e">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="e">
         <f>VLOOKUP(D38,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6" t="e">
+      <c r="I38" s="11"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="e">
         <f>VLOOKUP(J38,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -3204,29 +3236,29 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6" t="e">
+      <c r="A39" s="11"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="e">
         <f>VLOOKUP(D39,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6" t="e">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5" t="e">
         <f>VLOOKUP(D39,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6" t="e">
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="e">
         <f>VLOOKUP(J39,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -3237,29 +3269,29 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="e">
+      <c r="A40" s="11"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="e">
         <f>VLOOKUP(D40,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6" t="e">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="e">
         <f>VLOOKUP(D40,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6" t="e">
+      <c r="I40" s="11"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="e">
         <f>VLOOKUP(J40,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3270,29 +3302,29 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="e">
+      <c r="A41" s="11"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="e">
         <f>VLOOKUP(D41,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6" t="e">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5" t="e">
         <f>VLOOKUP(D41,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6" t="e">
+      <c r="I41" s="11"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5" t="e">
         <f>VLOOKUP(J41,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -3303,29 +3335,29 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="e">
+      <c r="A42" s="11"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="e">
         <f>VLOOKUP(D42,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6" t="e">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5" t="e">
         <f>VLOOKUP(D42,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6" t="e">
+      <c r="I42" s="11"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5" t="e">
         <f>VLOOKUP(J42,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -3336,29 +3368,29 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="e">
+      <c r="A43" s="11"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="e">
         <f>VLOOKUP(D43,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6" t="e">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5" t="e">
         <f>VLOOKUP(D43,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6" t="e">
+      <c r="I43" s="11"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5" t="e">
         <f>VLOOKUP(J43,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -3369,29 +3401,29 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="e">
+      <c r="A44" s="11"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="e">
         <f>VLOOKUP(D44,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6" t="e">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5" t="e">
         <f>VLOOKUP(D44,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6" t="e">
+      <c r="I44" s="11"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5" t="e">
         <f>VLOOKUP(J44,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -3402,29 +3434,29 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="e">
+      <c r="A45" s="11"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="e">
         <f>VLOOKUP(D45,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6" t="e">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="e">
         <f>VLOOKUP(D45,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="e">
+      <c r="I45" s="11"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="e">
         <f>VLOOKUP(J45,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
@@ -3435,29 +3467,29 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="e">
+      <c r="A46" s="11"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="e">
         <f>VLOOKUP(D46,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6" t="e">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="e">
         <f>VLOOKUP(D46,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="e">
+      <c r="I46" s="11"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5" t="e">
         <f>VLOOKUP(J46,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
@@ -3468,29 +3500,29 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="e">
+      <c r="A47" s="11"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="e">
         <f>VLOOKUP(D47,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6" t="e">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="e">
         <f>VLOOKUP(D47,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6" t="e">
+      <c r="I47" s="11"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5" t="e">
         <f>VLOOKUP(J47,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -3501,29 +3533,29 @@
       <c r="V47" s="1"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="e">
+      <c r="A48" s="11"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5" t="e">
         <f>VLOOKUP(D48,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="e">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="e">
         <f>VLOOKUP(D48,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6" t="e">
+      <c r="I48" s="11"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5" t="e">
         <f>VLOOKUP(J48,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -3534,29 +3566,29 @@
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6" t="e">
+      <c r="A49" s="11"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5" t="e">
         <f>VLOOKUP(D49,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="e">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="e">
         <f>VLOOKUP(D49,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6" t="e">
+      <c r="I49" s="11"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5" t="e">
         <f>VLOOKUP(J49,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -3567,29 +3599,29 @@
       <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="e">
+      <c r="A50" s="11"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5" t="e">
         <f>VLOOKUP(D50,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="e">
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="e">
         <f>VLOOKUP(D50,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6" t="e">
+      <c r="I50" s="11"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5" t="e">
         <f>VLOOKUP(J50,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
@@ -3600,29 +3632,29 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="e">
+      <c r="A51" s="11"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="e">
         <f>VLOOKUP(D51,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="e">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="e">
         <f>VLOOKUP(D51,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6" t="e">
+      <c r="I51" s="11"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5" t="e">
         <f>VLOOKUP(J51,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
@@ -3633,29 +3665,29 @@
       <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="e">
+      <c r="A52" s="11"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="e">
         <f>VLOOKUP(D52,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="e">
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="e">
         <f>VLOOKUP(D52,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6" t="e">
+      <c r="I52" s="11"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5" t="e">
         <f>VLOOKUP(J52,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -3666,29 +3698,29 @@
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="e">
+      <c r="A53" s="11"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="e">
         <f>VLOOKUP(D53,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="e">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="e">
         <f>VLOOKUP(D53,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="e">
+      <c r="I53" s="11"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5" t="e">
         <f>VLOOKUP(J53,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -3699,29 +3731,29 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="e">
+      <c r="A54" s="11"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="e">
         <f>VLOOKUP(D54,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="e">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5" t="e">
         <f>VLOOKUP(D54,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6" t="e">
+      <c r="I54" s="11"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5" t="e">
         <f>VLOOKUP(J54,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
@@ -3732,29 +3764,29 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="e">
+      <c r="A55" s="11"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="e">
         <f>VLOOKUP(D55,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6" t="e">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5" t="e">
         <f>VLOOKUP(D55,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6" t="e">
+      <c r="I55" s="11"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5" t="e">
         <f>VLOOKUP(J55,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
@@ -3765,29 +3797,29 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="e">
+      <c r="A56" s="11"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="e">
         <f>VLOOKUP(D56,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6" t="e">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="e">
         <f>VLOOKUP(D56,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6" t="e">
+      <c r="I56" s="11"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5" t="e">
         <f>VLOOKUP(J56,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
@@ -3798,29 +3830,29 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="e">
+      <c r="A57" s="11"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="e">
         <f>VLOOKUP(D57,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6" t="e">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5" t="e">
         <f>VLOOKUP(D57,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6" t="e">
+      <c r="I57" s="11"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5" t="e">
         <f>VLOOKUP(J57,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
@@ -3831,29 +3863,29 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6" t="e">
+      <c r="A58" s="11"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="e">
         <f>VLOOKUP(D58,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6" t="e">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5" t="e">
         <f>VLOOKUP(D58,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6" t="e">
+      <c r="I58" s="11"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5" t="e">
         <f>VLOOKUP(J58,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
@@ -3864,29 +3896,29 @@
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6" t="e">
+      <c r="A59" s="11"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="e">
         <f>VLOOKUP(D59,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6" t="e">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5" t="e">
         <f>VLOOKUP(D59,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6" t="e">
+      <c r="I59" s="11"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5" t="e">
         <f>VLOOKUP(J59,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
@@ -3897,29 +3929,29 @@
       <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6" t="e">
+      <c r="A60" s="11"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="e">
         <f>VLOOKUP(D60,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6" t="e">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5" t="e">
         <f>VLOOKUP(D60,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6" t="e">
+      <c r="I60" s="11"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5" t="e">
         <f>VLOOKUP(J60,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
@@ -3930,29 +3962,29 @@
       <c r="V60" s="1"/>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6" t="e">
+      <c r="A61" s="11"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="e">
         <f>VLOOKUP(D61,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6" t="e">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="e">
         <f>VLOOKUP(D61,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6" t="e">
+      <c r="I61" s="11"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5" t="e">
         <f>VLOOKUP(J61,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
@@ -3963,29 +3995,29 @@
       <c r="V61" s="1"/>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="e">
+      <c r="A62" s="11"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5" t="e">
         <f>VLOOKUP(D62,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6" t="e">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5" t="e">
         <f>VLOOKUP(D62,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6" t="e">
+      <c r="I62" s="11"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5" t="e">
         <f>VLOOKUP(J62,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
@@ -3996,29 +4028,29 @@
       <c r="V62" s="1"/>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="e">
+      <c r="A63" s="11"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="e">
         <f>VLOOKUP(D63,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6" t="e">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="e">
         <f>VLOOKUP(D63,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6" t="e">
+      <c r="I63" s="11"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5" t="e">
         <f>VLOOKUP(J63,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
@@ -4029,29 +4061,29 @@
       <c r="V63" s="1"/>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6" t="e">
+      <c r="A64" s="11"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="e">
         <f>VLOOKUP(D64,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6" t="e">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="e">
         <f>VLOOKUP(D64,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6" t="e">
+      <c r="I64" s="11"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5" t="e">
         <f>VLOOKUP(J64,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
@@ -4062,29 +4094,29 @@
       <c r="V64" s="1"/>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6" t="e">
+      <c r="A65" s="11"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5" t="e">
         <f>VLOOKUP(D65,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6" t="e">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5" t="e">
         <f>VLOOKUP(D65,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6" t="e">
+      <c r="I65" s="11"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5" t="e">
         <f>VLOOKUP(J65,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
@@ -4095,29 +4127,29 @@
       <c r="V65" s="1"/>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6" t="e">
+      <c r="A66" s="11"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="e">
         <f>VLOOKUP(D66,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6" t="e">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5" t="e">
         <f>VLOOKUP(D66,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6" t="e">
+      <c r="I66" s="11"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5" t="e">
         <f>VLOOKUP(J66,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
@@ -4128,29 +4160,29 @@
       <c r="V66" s="1"/>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6" t="e">
+      <c r="A67" s="11"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="e">
         <f>VLOOKUP(D67,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6" t="e">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5" t="e">
         <f>VLOOKUP(D67,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6" t="e">
+      <c r="I67" s="11"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5" t="e">
         <f>VLOOKUP(J67,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
@@ -4161,29 +4193,29 @@
       <c r="V67" s="1"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6" t="e">
+      <c r="A68" s="11"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5" t="e">
         <f>VLOOKUP(D68,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6" t="e">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5" t="e">
         <f>VLOOKUP(D68,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6" t="e">
+      <c r="I68" s="11"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5" t="e">
         <f>VLOOKUP(J68,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
@@ -4194,29 +4226,29 @@
       <c r="V68" s="1"/>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6" t="e">
+      <c r="A69" s="11"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="e">
         <f>VLOOKUP(D69,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6" t="e">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5" t="e">
         <f>VLOOKUP(D69,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6" t="e">
+      <c r="I69" s="11"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5" t="e">
         <f>VLOOKUP(J69,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="5"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
@@ -4227,29 +4259,29 @@
       <c r="V69" s="1"/>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6" t="e">
+      <c r="A70" s="11"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5" t="e">
         <f>VLOOKUP(D70,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6" t="e">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="e">
         <f>VLOOKUP(D70,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6" t="e">
+      <c r="I70" s="11"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5" t="e">
         <f>VLOOKUP(J70,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
@@ -4260,29 +4292,29 @@
       <c r="V70" s="1"/>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="e">
+      <c r="A71" s="11"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="e">
         <f>VLOOKUP(D71,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6" t="e">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5" t="e">
         <f>VLOOKUP(D71,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6" t="e">
+      <c r="I71" s="11"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5" t="e">
         <f>VLOOKUP(J71,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
@@ -4293,29 +4325,29 @@
       <c r="V71" s="1"/>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="e">
+      <c r="A72" s="11"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5" t="e">
         <f>VLOOKUP(D72,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6" t="e">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5" t="e">
         <f>VLOOKUP(D72,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6" t="e">
+      <c r="I72" s="11"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5" t="e">
         <f>VLOOKUP(J72,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
@@ -4326,29 +4358,29 @@
       <c r="V72" s="1"/>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="e">
+      <c r="A73" s="11"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="e">
         <f>VLOOKUP(D73,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6" t="e">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5" t="e">
         <f>VLOOKUP(D73,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6" t="e">
+      <c r="I73" s="11"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5" t="e">
         <f>VLOOKUP(J73,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
@@ -4359,29 +4391,29 @@
       <c r="V73" s="1"/>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6" t="e">
+      <c r="A74" s="11"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="e">
         <f>VLOOKUP(D74,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6" t="e">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="e">
         <f>VLOOKUP(D74,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6" t="e">
+      <c r="I74" s="11"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5" t="e">
         <f>VLOOKUP(J74,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
@@ -4392,29 +4424,29 @@
       <c r="V74" s="1"/>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6" t="e">
+      <c r="A75" s="11"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5" t="e">
         <f>VLOOKUP(D75,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6" t="e">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5" t="e">
         <f>VLOOKUP(D75,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6" t="e">
+      <c r="I75" s="11"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5" t="e">
         <f>VLOOKUP(J75,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
@@ -4425,29 +4457,29 @@
       <c r="V75" s="1"/>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="e">
+      <c r="A76" s="11"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5" t="e">
         <f>VLOOKUP(D76,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6" t="e">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5" t="e">
         <f>VLOOKUP(D76,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6" t="e">
+      <c r="I76" s="11"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5" t="e">
         <f>VLOOKUP(J76,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
@@ -4458,29 +4490,29 @@
       <c r="V76" s="1"/>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="e">
+      <c r="A77" s="11"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5" t="e">
         <f>VLOOKUP(D77,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6" t="e">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="e">
         <f>VLOOKUP(D77,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6" t="e">
+      <c r="I77" s="11"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5" t="e">
         <f>VLOOKUP(J77,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
@@ -4491,29 +4523,29 @@
       <c r="V77" s="1"/>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="e">
+      <c r="A78" s="11"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5" t="e">
         <f>VLOOKUP(D78,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6" t="e">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="e">
         <f>VLOOKUP(D78,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6" t="e">
+      <c r="I78" s="11"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5" t="e">
         <f>VLOOKUP(J78,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -4524,29 +4556,29 @@
       <c r="V78" s="1"/>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6" t="e">
+      <c r="A79" s="11"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5" t="e">
         <f>VLOOKUP(D79,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="e">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5" t="e">
         <f>VLOOKUP(D79,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6" t="e">
+      <c r="I79" s="11"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5" t="e">
         <f>VLOOKUP(J79,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="5"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
@@ -4557,29 +4589,29 @@
       <c r="V79" s="1"/>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6" t="e">
+      <c r="A80" s="11"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5" t="e">
         <f>VLOOKUP(D80,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6" t="e">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5" t="e">
         <f>VLOOKUP(D80,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6" t="e">
+      <c r="I80" s="11"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5" t="e">
         <f>VLOOKUP(J80,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="5"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
@@ -4590,29 +4622,29 @@
       <c r="V80" s="1"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6" t="e">
+      <c r="A81" s="11"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5" t="e">
         <f>VLOOKUP(D81,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6" t="e">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="e">
         <f>VLOOKUP(D81,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6" t="e">
+      <c r="I81" s="11"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5" t="e">
         <f>VLOOKUP(J81,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -4623,29 +4655,29 @@
       <c r="V81" s="1"/>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6" t="e">
+      <c r="A82" s="11"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5" t="e">
         <f>VLOOKUP(D82,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6" t="e">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="e">
         <f>VLOOKUP(D82,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6" t="e">
+      <c r="I82" s="11"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5" t="e">
         <f>VLOOKUP(J82,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -4656,29 +4688,29 @@
       <c r="V82" s="1"/>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6" t="e">
+      <c r="A83" s="11"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5" t="e">
         <f>VLOOKUP(D83,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6" t="e">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5" t="e">
         <f>VLOOKUP(D83,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6" t="e">
+      <c r="I83" s="11"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5" t="e">
         <f>VLOOKUP(J83,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="5"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -4689,29 +4721,29 @@
       <c r="V83" s="1"/>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6" t="e">
+      <c r="A84" s="11"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5" t="e">
         <f>VLOOKUP(D84,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6" t="e">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="e">
         <f>VLOOKUP(D84,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6" t="e">
+      <c r="I84" s="11"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5" t="e">
         <f>VLOOKUP(J84,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="5"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -4722,29 +4754,29 @@
       <c r="V84" s="1"/>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6" t="e">
+      <c r="A85" s="11"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5" t="e">
         <f>VLOOKUP(D85,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6" t="e">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5" t="e">
         <f>VLOOKUP(D85,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6" t="e">
+      <c r="I85" s="11"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5" t="e">
         <f>VLOOKUP(J85,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="5"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -4755,29 +4787,29 @@
       <c r="V85" s="1"/>
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6" t="e">
+      <c r="A86" s="11"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5" t="e">
         <f>VLOOKUP(D86,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6" t="e">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5" t="e">
         <f>VLOOKUP(D86,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6" t="e">
+      <c r="I86" s="11"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5" t="e">
         <f>VLOOKUP(J86,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -4788,29 +4820,29 @@
       <c r="V86" s="1"/>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6" t="e">
+      <c r="A87" s="11"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5" t="e">
         <f>VLOOKUP(D87,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6" t="e">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="e">
         <f>VLOOKUP(D87,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6" t="e">
+      <c r="I87" s="11"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5" t="e">
         <f>VLOOKUP(J87,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -4821,29 +4853,29 @@
       <c r="V87" s="1"/>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6" t="e">
+      <c r="A88" s="11"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5" t="e">
         <f>VLOOKUP(D88,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6" t="e">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5" t="e">
         <f>VLOOKUP(D88,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6" t="e">
+      <c r="I88" s="11"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5" t="e">
         <f>VLOOKUP(J88,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -4854,29 +4886,29 @@
       <c r="V88" s="1"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6" t="e">
+      <c r="A89" s="11"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="e">
         <f>VLOOKUP(D89,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6" t="e">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="e">
         <f>VLOOKUP(D89,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6" t="e">
+      <c r="I89" s="11"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5" t="e">
         <f>VLOOKUP(J89,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -4887,29 +4919,29 @@
       <c r="V89" s="1"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6" t="e">
+      <c r="A90" s="11"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5" t="e">
         <f>VLOOKUP(D90,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6" t="e">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5" t="e">
         <f>VLOOKUP(D90,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6" t="e">
+      <c r="I90" s="11"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5" t="e">
         <f>VLOOKUP(J90,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -4920,29 +4952,29 @@
       <c r="V90" s="1"/>
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6" t="e">
+      <c r="A91" s="11"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5" t="e">
         <f>VLOOKUP(D91,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6" t="e">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5" t="e">
         <f>VLOOKUP(D91,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6" t="e">
+      <c r="I91" s="11"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5" t="e">
         <f>VLOOKUP(J91,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -4953,29 +4985,29 @@
       <c r="V91" s="1"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6" t="e">
+      <c r="A92" s="11"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5" t="e">
         <f>VLOOKUP(D92,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6" t="e">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5" t="e">
         <f>VLOOKUP(D92,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6" t="e">
+      <c r="I92" s="11"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5" t="e">
         <f>VLOOKUP(J92,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -4986,29 +5018,29 @@
       <c r="V92" s="1"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6" t="e">
+      <c r="A93" s="11"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5" t="e">
         <f>VLOOKUP(D93,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6" t="e">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="e">
         <f>VLOOKUP(D93,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6" t="e">
+      <c r="I93" s="11"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5" t="e">
         <f>VLOOKUP(J93,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L93" s="6"/>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="5"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -5019,29 +5051,29 @@
       <c r="V93" s="1"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6" t="e">
+      <c r="A94" s="11"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5" t="e">
         <f>VLOOKUP(D94,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6" t="e">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="e">
         <f>VLOOKUP(D94,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6" t="e">
+      <c r="I94" s="11"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5" t="e">
         <f>VLOOKUP(J94,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L94" s="6"/>
-      <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -5052,29 +5084,29 @@
       <c r="V94" s="1"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6" t="e">
+      <c r="A95" s="11"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5" t="e">
         <f>VLOOKUP(D95,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6" t="e">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="e">
         <f>VLOOKUP(D95,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6" t="e">
+      <c r="I95" s="11"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5" t="e">
         <f>VLOOKUP(J95,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -5085,29 +5117,29 @@
       <c r="V95" s="1"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6" t="e">
+      <c r="A96" s="11"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5" t="e">
         <f>VLOOKUP(D96,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6" t="e">
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5" t="e">
         <f>VLOOKUP(D96,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6" t="e">
+      <c r="I96" s="11"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5" t="e">
         <f>VLOOKUP(J96,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -5118,29 +5150,29 @@
       <c r="V96" s="1"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6" t="e">
+      <c r="A97" s="11"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5" t="e">
         <f>VLOOKUP(D97,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6" t="e">
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5" t="e">
         <f>VLOOKUP(D97,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6" t="e">
+      <c r="I97" s="11"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5" t="e">
         <f>VLOOKUP(J97,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -5151,29 +5183,29 @@
       <c r="V97" s="1"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6" t="e">
+      <c r="A98" s="11"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5" t="e">
         <f>VLOOKUP(D98,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6" t="e">
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5" t="e">
         <f>VLOOKUP(D98,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6" t="e">
+      <c r="I98" s="11"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5" t="e">
         <f>VLOOKUP(J98,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -5184,29 +5216,29 @@
       <c r="V98" s="1"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6" t="e">
+      <c r="A99" s="11"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="10" t="e">
         <f>VLOOKUP(D99,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6" t="e">
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="10" t="e">
         <f>VLOOKUP(D99,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6" t="e">
+      <c r="I99" s="11"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="10" t="e">
         <f>VLOOKUP(J99,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -5217,29 +5249,29 @@
       <c r="V99" s="1"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="11" t="e">
+      <c r="A100" s="11"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5" t="e">
         <f>VLOOKUP(D100,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="11" t="e">
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="e">
         <f>VLOOKUP(D100,Customer!A$1:C$100,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="11" t="e">
+      <c r="I100" s="11"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5" t="e">
         <f>VLOOKUP(J100,CarrierInfo!B$1:C$314,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -5248,39 +5280,6 @@
       <c r="T100" s="1"/>
       <c r="U100" s="1"/>
       <c r="V100" s="1"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6" t="e">
-        <f>VLOOKUP(D101,Customer!A$1:C$100,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6" t="e">
-        <f>VLOOKUP(D101,Customer!A$1:C$100,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6" t="e">
-        <f>VLOOKUP(J101,CarrierInfo!B$1:C$314,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L101" s="6"/>
-      <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5295,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -5311,15 +5310,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5398,15 +5397,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -5527,11 +5526,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
